--- a/TRANSFERENCIA_PRONTUARIO_INTERNOS_ENTRE_UNIDADES.xlsx
+++ b/TRANSFERENCIA_PRONTUARIO_INTERNOS_ENTRE_UNIDADES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Código</t>
   </si>
@@ -32,64 +32,115 @@
     <t>Documento</t>
   </si>
   <si>
-    <t>2184</t>
-  </si>
-  <si>
-    <t>66004-33</t>
-  </si>
-  <si>
-    <t>JALDEMIR ALVES DOS SANTOS</t>
-  </si>
-  <si>
-    <t>02/05/2018</t>
-  </si>
-  <si>
-    <t>CASA DO ALBERGADO E EGRESSOS</t>
-  </si>
-  <si>
-    <t>1256-18</t>
-  </si>
-  <si>
-    <t>781</t>
-  </si>
-  <si>
-    <t>47747-87</t>
-  </si>
-  <si>
-    <t>ANDERSON DOS SANTOS RODRIGUES</t>
-  </si>
-  <si>
-    <t>PENITENCIARIA LEMOS BRITO</t>
-  </si>
-  <si>
-    <t>1276-18</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>18823-92</t>
-  </si>
-  <si>
-    <t>RODRIGO SANTOS DA SILVA</t>
-  </si>
-  <si>
-    <t>1306-18</t>
-  </si>
-  <si>
-    <t>2058</t>
-  </si>
-  <si>
-    <t>47751-63</t>
-  </si>
-  <si>
-    <t>ERLAN CARLOS PEREIRA BITTENCOURT</t>
-  </si>
-  <si>
-    <t>CENTRO DE OBSERVACAO PENAL C.O.P</t>
-  </si>
-  <si>
-    <t>1276</t>
+    <t>102</t>
+  </si>
+  <si>
+    <t>ECLITON SANTOS BARBOSA</t>
+  </si>
+  <si>
+    <t>31/03/2015</t>
+  </si>
+  <si>
+    <t>Conjunto Penal de Barreiras</t>
+  </si>
+  <si>
+    <t>31030904</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>GERSON LUIZ DE FRANCA</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>CARLOS MAGNO RAMOS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12358778-96</t>
+  </si>
+  <si>
+    <t>ALAN DIEGO REIS DE PASSOS</t>
+  </si>
+  <si>
+    <t>22/08/2016</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ANJO DE JESUS SILVA</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>27/12/2016</t>
+  </si>
+  <si>
+    <t>3456</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>ANDERSON DOS SANTOS</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>GIVANILDO LUDUGERO DA SILVA</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>ALISSON PEREIRA DE JESUS</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>5677</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1254897-96</t>
+  </si>
+  <si>
+    <t>ADNILSON OLIVEIRA DA CONCEICAO</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -164,80 +215,196 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
